--- a/Program/Figure04/fNIRS.xlsx
+++ b/Program/Figure04/fNIRS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhangxiaofei\Scientific Reports\github\github最终上传\github\Program\Figure04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zhangxiaofei\Scientific Reports\github\download\fNIRS\Program\Figure04\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -361,37 +361,37 @@
         <v>1.5733379025628345</v>
       </c>
       <c r="B1">
-        <v>2.1125307234267812</v>
+        <v>2.1125307234267807</v>
       </c>
       <c r="C1">
         <v>1.8019933253388536</v>
       </c>
       <c r="D1">
-        <v>2.3601981262285632</v>
+        <v>2.3601981262285627</v>
       </c>
       <c r="E1">
         <v>1.2696809362985646</v>
       </c>
       <c r="F1">
-        <v>1.618172432288036</v>
+        <v>1.6181724322880364</v>
       </c>
       <c r="G1">
-        <v>1.9474611708421812</v>
+        <v>1.9474611708421807</v>
       </c>
       <c r="H1">
-        <v>2.4094140309913525</v>
+        <v>2.409414030991353</v>
       </c>
       <c r="I1">
         <v>1.3427243596883538</v>
       </c>
       <c r="J1">
-        <v>1.8934860131779376</v>
+        <v>1.8934860131779374</v>
       </c>
       <c r="K1">
-        <v>1.2823231570180424</v>
+        <v>1.2823231570180427</v>
       </c>
       <c r="L1">
-        <v>1.6630226597837807</v>
+        <v>1.6630226597837805</v>
       </c>
       <c r="M1">
         <v>1.1078981574542759</v>
@@ -400,42 +400,42 @@
         <v>1.3191139228431787</v>
       </c>
       <c r="O1">
-        <v>1.6246015885639409</v>
+        <v>1.6246015885639404</v>
       </c>
       <c r="P1">
-        <v>1.8116163415240216</v>
+        <v>1.8116163415240212</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.61617242486188883</v>
+        <v>0.61617242486188872</v>
       </c>
       <c r="B2">
-        <v>0.7605042326105621</v>
+        <v>0.76050423261056199</v>
       </c>
       <c r="C2">
         <v>0.47911179614415678</v>
       </c>
       <c r="D2">
-        <v>0.4331123787076282</v>
+        <v>0.43311237870762831</v>
       </c>
       <c r="E2">
-        <v>0.54824548471940926</v>
+        <v>0.54824548471940915</v>
       </c>
       <c r="F2">
-        <v>0.75101203117991377</v>
+        <v>0.751012031179914</v>
       </c>
       <c r="G2">
-        <v>1.0474829540696973</v>
+        <v>1.0474829540696975</v>
       </c>
       <c r="H2">
         <v>1.0158669370906408</v>
       </c>
       <c r="I2">
-        <v>-2.0593777895276943E-3</v>
+        <v>-2.0593777895277165E-3</v>
       </c>
       <c r="J2">
-        <v>3.7157329980503161E-2</v>
+        <v>3.7157329980503181E-2</v>
       </c>
       <c r="K2">
         <v>0.40459419653694983</v>
@@ -453,18 +453,18 @@
         <v>0.60536882319485197</v>
       </c>
       <c r="P2">
-        <v>0.7463664810488746</v>
+        <v>0.74636648104887438</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>-3.7315297635420269E-2</v>
+        <v>-3.7315297635420262E-2</v>
       </c>
       <c r="B3">
-        <v>0.95236549544889526</v>
+        <v>0.95236549544889537</v>
       </c>
       <c r="C3">
-        <v>3.6251809036515682E-2</v>
+        <v>3.6251809036515738E-2</v>
       </c>
       <c r="D3">
         <v>1.0829971093120796</v>
@@ -473,37 +473,37 @@
         <v>0.10081376942868467</v>
       </c>
       <c r="F3">
-        <v>1.0361869232402423</v>
+        <v>1.0361869232402421</v>
       </c>
       <c r="G3">
-        <v>0.24856556983524486</v>
+        <v>0.24856556983524491</v>
       </c>
       <c r="H3">
-        <v>1.2880067399038639</v>
+        <v>1.2880067399038637</v>
       </c>
       <c r="I3">
-        <v>0.52985745571736564</v>
+        <v>0.52985745571736553</v>
       </c>
       <c r="J3">
         <v>1.1554549068656899</v>
       </c>
       <c r="K3">
-        <v>0.34248617951821064</v>
+        <v>0.34248617951821053</v>
       </c>
       <c r="L3">
-        <v>1.2873724651211396</v>
+        <v>1.2873724651211393</v>
       </c>
       <c r="M3">
-        <v>9.1503577283513909E-2</v>
+        <v>9.1503577283513896E-2</v>
       </c>
       <c r="N3">
-        <v>0.77111988529515962</v>
+        <v>0.7711198852951594</v>
       </c>
       <c r="O3">
         <v>0.47833355442078285</v>
       </c>
       <c r="P3">
-        <v>1.3537888837576484</v>
+        <v>1.3537888837576482</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -511,13 +511,13 @@
         <v>0.22626158347899006</v>
       </c>
       <c r="B4">
-        <v>-0.16006026672531823</v>
+        <v>-0.1600602667253182</v>
       </c>
       <c r="C4">
         <v>0.36290190792598487</v>
       </c>
       <c r="D4">
-        <v>-2.6873734640351053E-2</v>
+        <v>-2.6873734640350921E-2</v>
       </c>
       <c r="E4">
         <v>0.22184259036064286</v>
@@ -526,34 +526,34 @@
         <v>-2.4952666937223401E-2</v>
       </c>
       <c r="G4">
-        <v>0.41860891151871088</v>
+        <v>0.41860891151871094</v>
       </c>
       <c r="H4">
-        <v>0.21953544235498734</v>
+        <v>0.21953544235498743</v>
       </c>
       <c r="I4">
-        <v>0.13238976416392617</v>
+        <v>0.1323897641639262</v>
       </c>
       <c r="J4">
-        <v>-0.63279141411876005</v>
+        <v>-0.63279141411875983</v>
       </c>
       <c r="K4">
         <v>0.52474422516124941</v>
       </c>
       <c r="L4">
-        <v>-0.17215942943684492</v>
+        <v>-0.1721594294368447</v>
       </c>
       <c r="M4">
         <v>0.40386078538350317</v>
       </c>
       <c r="N4">
-        <v>-5.1280373721142067E-2</v>
+        <v>-5.1280373721142157E-2</v>
       </c>
       <c r="O4">
-        <v>0.55376332177572019</v>
+        <v>0.5537633217757203</v>
       </c>
       <c r="P4">
-        <v>0.32234070732220593</v>
+        <v>0.32234070732220577</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -561,7 +561,7 @@
         <v>0.35821138580366196</v>
       </c>
       <c r="B5">
-        <v>-8.9123351206236343</v>
+        <v>-8.9123351206236361</v>
       </c>
       <c r="C5">
         <v>0.38352651567692159</v>
@@ -573,10 +573,10 @@
         <v>0.3150648613865088</v>
       </c>
       <c r="F5">
-        <v>-30.711254760645403</v>
+        <v>-30.711254760645396</v>
       </c>
       <c r="G5">
-        <v>0.43385625504143654</v>
+        <v>0.43385625504143643</v>
       </c>
       <c r="H5">
         <v>-67.046107124650405</v>
@@ -588,13 +588,13 @@
         <v>1.4841475544032945</v>
       </c>
       <c r="K5">
-        <v>0.52475822587551679</v>
+        <v>0.52475822587551701</v>
       </c>
       <c r="L5">
         <v>1.4260547725308448</v>
       </c>
       <c r="M5">
-        <v>0.22538180122183782</v>
+        <v>0.22538180122183776</v>
       </c>
       <c r="N5">
         <v>0.7257558740122052</v>
@@ -603,7 +603,7 @@
         <v>0.38712328503010507</v>
       </c>
       <c r="P5">
-        <v>1.2048936916859094</v>
+        <v>1.2048936916859099</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -611,7 +611,7 @@
         <v>0.61690852302110388</v>
       </c>
       <c r="B6">
-        <v>0.79765647142224083</v>
+        <v>0.79765647142224072</v>
       </c>
       <c r="C6">
         <v>0.32696914546914052</v>
@@ -623,51 +623,51 @@
         <v>0.15699227182310596</v>
       </c>
       <c r="F6">
-        <v>-4.710886797621011E-3</v>
+        <v>-4.7108867976210196E-3</v>
       </c>
       <c r="G6">
-        <v>0.13104795833594657</v>
+        <v>0.1310479583359466</v>
       </c>
       <c r="H6">
-        <v>-3.5461829340574083E-2</v>
+        <v>-3.5461829340574104E-2</v>
       </c>
       <c r="I6">
         <v>0.38554671975077154</v>
       </c>
       <c r="J6">
-        <v>0.45522247638448166</v>
+        <v>0.45522247638448177</v>
       </c>
       <c r="K6">
-        <v>0.49726775270061496</v>
+        <v>0.49726775270061491</v>
       </c>
       <c r="L6">
         <v>0.5424985450659936</v>
       </c>
       <c r="M6">
-        <v>9.2076616618987459E-2</v>
+        <v>9.2076616618987472E-2</v>
       </c>
       <c r="N6">
-        <v>-3.7224787967428383E-2</v>
+        <v>-3.7224787967428341E-2</v>
       </c>
       <c r="O6">
         <v>0.18012710864725498</v>
       </c>
       <c r="P6">
-        <v>7.6265143306231312E-2</v>
+        <v>7.6265143306231326E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>-0.38929014305037313</v>
+        <v>-0.38929014305037307</v>
       </c>
       <c r="B7">
-        <v>-0.15485468802357907</v>
+        <v>-0.15485468802357899</v>
       </c>
       <c r="C7">
-        <v>-0.25449946852160626</v>
+        <v>-0.25449946852160649</v>
       </c>
       <c r="D7">
-        <v>-0.13728407446058702</v>
+        <v>-0.1372840744605873</v>
       </c>
       <c r="E7">
         <v>0.323061249132235</v>
@@ -682,28 +682,28 @@
         <v>0.89369359312265417</v>
       </c>
       <c r="I7">
-        <v>8.17544132485825E-2</v>
+        <v>8.1754413248582458E-2</v>
       </c>
       <c r="J7">
         <v>1.0590582920777212</v>
       </c>
       <c r="K7">
-        <v>-0.36649797017238717</v>
+        <v>-0.36649797017238706</v>
       </c>
       <c r="L7">
-        <v>0.13766803344277129</v>
+        <v>0.13766803344277123</v>
       </c>
       <c r="M7">
-        <v>0.34410587831119643</v>
+        <v>0.34410587831119649</v>
       </c>
       <c r="N7">
-        <v>1.2999996951768567</v>
+        <v>1.2999996951768564</v>
       </c>
       <c r="O7">
-        <v>0.41579080815297009</v>
+        <v>0.41579080815297004</v>
       </c>
       <c r="P7">
-        <v>1.2645225923298087</v>
+        <v>1.2645225923298089</v>
       </c>
     </row>
   </sheetData>
